--- a/eia-weekly-xlsx... manual hierarchy.xlsx
+++ b/eia-weekly-xlsx... manual hierarchy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="scrape_result" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,11 @@
     <sheet name="refiner" sheetId="8" r:id="rId4"/>
     <sheet name="all large" sheetId="7" r:id="rId5"/>
     <sheet name="all small" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'all large'!$A$1:$C$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'all small'!$A$1:$C$141</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scrape_result!$A$1:$P$559</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">smalls!$A$1:$J$134</definedName>
   </definedNames>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7005" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7075" uniqueCount="1315">
   <si>
     <t>Sourcekey</t>
   </si>
@@ -4436,27 +4438,27 @@
   <dimension ref="A1:P559"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.28515625" customWidth="1"/>
-    <col min="8" max="8" width="119.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.33203125" customWidth="1"/>
+    <col min="8" max="8" width="119.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4506,7 +4508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -4541,7 +4543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -4576,7 +4578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -4611,7 +4613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -4646,7 +4648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -4681,7 +4683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -4719,7 +4721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -4757,7 +4759,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -4795,7 +4797,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -4833,7 +4835,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -4868,7 +4870,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -4991,7 +4993,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -5035,7 +5037,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -5076,7 +5078,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -5120,7 +5122,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>77</v>
       </c>
@@ -5167,7 +5169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
@@ -5214,7 +5216,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
@@ -5258,7 +5260,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
@@ -5293,7 +5295,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -5331,7 +5333,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>96</v>
       </c>
@@ -5369,7 +5371,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -5404,7 +5406,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -5442,7 +5444,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>107</v>
       </c>
@@ -5480,7 +5482,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>111</v>
       </c>
@@ -5518,7 +5520,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>115</v>
       </c>
@@ -5553,7 +5555,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -5588,7 +5590,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>121</v>
       </c>
@@ -5623,7 +5625,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>124</v>
       </c>
@@ -5661,7 +5663,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
@@ -5699,7 +5701,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>133</v>
       </c>
@@ -5734,7 +5736,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>136</v>
       </c>
@@ -5772,7 +5774,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>140</v>
       </c>
@@ -5813,7 +5815,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>143</v>
       </c>
@@ -5857,7 +5859,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>146</v>
       </c>
@@ -5901,7 +5903,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
@@ -5942,7 +5944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>152</v>
       </c>
@@ -5986,7 +5988,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>155</v>
       </c>
@@ -6033,7 +6035,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>158</v>
       </c>
@@ -6080,7 +6082,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>161</v>
       </c>
@@ -6124,7 +6126,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>164</v>
       </c>
@@ -6162,7 +6164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>167</v>
       </c>
@@ -6203,7 +6205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>170</v>
       </c>
@@ -6247,7 +6249,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>174</v>
       </c>
@@ -6291,7 +6293,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>178</v>
       </c>
@@ -6332,7 +6334,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>181</v>
       </c>
@@ -6373,7 +6375,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>184</v>
       </c>
@@ -6414,7 +6416,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>187</v>
       </c>
@@ -6449,7 +6451,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>189</v>
       </c>
@@ -6484,7 +6486,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>191</v>
       </c>
@@ -6519,7 +6521,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>193</v>
       </c>
@@ -6557,7 +6559,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>195</v>
       </c>
@@ -6595,7 +6597,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>197</v>
       </c>
@@ -6633,7 +6635,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>199</v>
       </c>
@@ -6668,7 +6670,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>201</v>
       </c>
@@ -6703,7 +6705,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>204</v>
       </c>
@@ -6738,7 +6740,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>207</v>
       </c>
@@ -6773,7 +6775,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>211</v>
       </c>
@@ -6811,7 +6813,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>214</v>
       </c>
@@ -6846,7 +6848,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>217</v>
       </c>
@@ -6884,7 +6886,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>220</v>
       </c>
@@ -6925,7 +6927,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>223</v>
       </c>
@@ -6969,7 +6971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>226</v>
       </c>
@@ -7016,7 +7018,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>229</v>
       </c>
@@ -7063,7 +7065,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>232</v>
       </c>
@@ -7107,7 +7109,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>235</v>
       </c>
@@ -7154,7 +7156,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>238</v>
       </c>
@@ -7204,7 +7206,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>241</v>
       </c>
@@ -7254,7 +7256,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>244</v>
       </c>
@@ -7301,7 +7303,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>247</v>
       </c>
@@ -7342,7 +7344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>250</v>
       </c>
@@ -7386,7 +7388,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>253</v>
       </c>
@@ -7433,7 +7435,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>256</v>
       </c>
@@ -7480,7 +7482,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>259</v>
       </c>
@@ -7524,7 +7526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>262</v>
       </c>
@@ -7568,7 +7570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>265</v>
       </c>
@@ -7612,7 +7614,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>268</v>
       </c>
@@ -7650,7 +7652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>271</v>
       </c>
@@ -7688,7 +7690,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>274</v>
       </c>
@@ -7726,7 +7728,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>277</v>
       </c>
@@ -7767,7 +7769,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>280</v>
       </c>
@@ -7808,7 +7810,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>283</v>
       </c>
@@ -7849,7 +7851,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>287</v>
       </c>
@@ -7890,7 +7892,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>291</v>
       </c>
@@ -7928,7 +7930,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>294</v>
       </c>
@@ -7966,7 +7968,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>297</v>
       </c>
@@ -8004,7 +8006,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>301</v>
       </c>
@@ -8039,7 +8041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>304</v>
       </c>
@@ -8074,7 +8076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>306</v>
       </c>
@@ -8109,7 +8111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>308</v>
       </c>
@@ -8144,7 +8146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>310</v>
       </c>
@@ -8179,7 +8181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>312</v>
       </c>
@@ -8217,7 +8219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>315</v>
       </c>
@@ -8255,7 +8257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>317</v>
       </c>
@@ -8293,7 +8295,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>319</v>
       </c>
@@ -8331,7 +8333,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>321</v>
       </c>
@@ -8366,7 +8368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>323</v>
       </c>
@@ -8404,7 +8406,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>325</v>
       </c>
@@ -8445,7 +8447,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>327</v>
       </c>
@@ -8489,7 +8491,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>329</v>
       </c>
@@ -8533,7 +8535,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>331</v>
       </c>
@@ -8574,7 +8576,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>333</v>
       </c>
@@ -8618,7 +8620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>335</v>
       </c>
@@ -8665,7 +8667,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>337</v>
       </c>
@@ -8712,7 +8714,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>339</v>
       </c>
@@ -8756,7 +8758,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>341</v>
       </c>
@@ -8791,7 +8793,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>343</v>
       </c>
@@ -8829,7 +8831,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>345</v>
       </c>
@@ -8867,7 +8869,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>347</v>
       </c>
@@ -8902,7 +8904,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>349</v>
       </c>
@@ -8940,7 +8942,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>351</v>
       </c>
@@ -8978,7 +8980,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>353</v>
       </c>
@@ -9016,7 +9018,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>355</v>
       </c>
@@ -9051,7 +9053,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>357</v>
       </c>
@@ -9086,7 +9088,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>359</v>
       </c>
@@ -9121,7 +9123,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>361</v>
       </c>
@@ -9159,7 +9161,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>363</v>
       </c>
@@ -9197,7 +9199,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>365</v>
       </c>
@@ -9232,7 +9234,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>367</v>
       </c>
@@ -9270,7 +9272,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>369</v>
       </c>
@@ -9311,7 +9313,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>371</v>
       </c>
@@ -9355,7 +9357,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>373</v>
       </c>
@@ -9399,7 +9401,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>375</v>
       </c>
@@ -9440,7 +9442,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>377</v>
       </c>
@@ -9484,7 +9486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>379</v>
       </c>
@@ -9531,7 +9533,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>381</v>
       </c>
@@ -9578,7 +9580,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>383</v>
       </c>
@@ -9622,7 +9624,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>385</v>
       </c>
@@ -9660,7 +9662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>387</v>
       </c>
@@ -9701,7 +9703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>389</v>
       </c>
@@ -9745,7 +9747,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>391</v>
       </c>
@@ -9789,7 +9791,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>393</v>
       </c>
@@ -9830,7 +9832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>395</v>
       </c>
@@ -9871,7 +9873,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>397</v>
       </c>
@@ -9912,7 +9914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>399</v>
       </c>
@@ -9947,7 +9949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>401</v>
       </c>
@@ -9982,7 +9984,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>403</v>
       </c>
@@ -10017,7 +10019,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>405</v>
       </c>
@@ -10055,7 +10057,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>407</v>
       </c>
@@ -10093,7 +10095,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>409</v>
       </c>
@@ -10131,7 +10133,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>411</v>
       </c>
@@ -10166,7 +10168,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>413</v>
       </c>
@@ -10201,7 +10203,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>415</v>
       </c>
@@ -10236,7 +10238,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>417</v>
       </c>
@@ -10271,7 +10273,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>419</v>
       </c>
@@ -10309,7 +10311,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>421</v>
       </c>
@@ -10344,7 +10346,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>423</v>
       </c>
@@ -10382,7 +10384,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>425</v>
       </c>
@@ -10423,7 +10425,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>427</v>
       </c>
@@ -10467,7 +10469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>429</v>
       </c>
@@ -10514,7 +10516,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>431</v>
       </c>
@@ -10561,7 +10563,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>433</v>
       </c>
@@ -10605,7 +10607,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>435</v>
       </c>
@@ -10652,7 +10654,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>437</v>
       </c>
@@ -10702,7 +10704,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>439</v>
       </c>
@@ -10752,7 +10754,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>441</v>
       </c>
@@ -10799,7 +10801,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>443</v>
       </c>
@@ -10840,7 +10842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>445</v>
       </c>
@@ -10884,7 +10886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>447</v>
       </c>
@@ -10931,7 +10933,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>449</v>
       </c>
@@ -10978,7 +10980,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>451</v>
       </c>
@@ -11022,7 +11024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>453</v>
       </c>
@@ -11066,7 +11068,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>455</v>
       </c>
@@ -11110,7 +11112,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>457</v>
       </c>
@@ -11148,7 +11150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>459</v>
       </c>
@@ -11186,7 +11188,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>461</v>
       </c>
@@ -11224,7 +11226,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>463</v>
       </c>
@@ -11265,7 +11267,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>465</v>
       </c>
@@ -11306,7 +11308,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>467</v>
       </c>
@@ -11347,7 +11349,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>469</v>
       </c>
@@ -11388,7 +11390,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>471</v>
       </c>
@@ -11426,7 +11428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>473</v>
       </c>
@@ -11464,7 +11466,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>475</v>
       </c>
@@ -11502,7 +11504,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>477</v>
       </c>
@@ -11537,7 +11539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>480</v>
       </c>
@@ -11572,7 +11574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>482</v>
       </c>
@@ -11607,7 +11609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>484</v>
       </c>
@@ -11642,7 +11644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>486</v>
       </c>
@@ -11677,7 +11679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>488</v>
       </c>
@@ -11715,7 +11717,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>490</v>
       </c>
@@ -11753,7 +11755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>492</v>
       </c>
@@ -11791,7 +11793,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>494</v>
       </c>
@@ -11829,7 +11831,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>496</v>
       </c>
@@ -11864,7 +11866,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>498</v>
       </c>
@@ -11902,7 +11904,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>500</v>
       </c>
@@ -11943,7 +11945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>502</v>
       </c>
@@ -11987,7 +11989,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>504</v>
       </c>
@@ -12031,7 +12033,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>506</v>
       </c>
@@ -12072,7 +12074,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>508</v>
       </c>
@@ -12116,7 +12118,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>510</v>
       </c>
@@ -12163,7 +12165,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>512</v>
       </c>
@@ -12210,7 +12212,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>514</v>
       </c>
@@ -12254,7 +12256,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>516</v>
       </c>
@@ -12289,7 +12291,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>518</v>
       </c>
@@ -12327,7 +12329,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>520</v>
       </c>
@@ -12365,7 +12367,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>522</v>
       </c>
@@ -12400,7 +12402,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>524</v>
       </c>
@@ -12438,7 +12440,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>526</v>
       </c>
@@ -12476,7 +12478,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>528</v>
       </c>
@@ -12514,7 +12516,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>530</v>
       </c>
@@ -12549,7 +12551,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>532</v>
       </c>
@@ -12584,7 +12586,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>534</v>
       </c>
@@ -12619,7 +12621,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>536</v>
       </c>
@@ -12657,7 +12659,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>538</v>
       </c>
@@ -12695,7 +12697,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>540</v>
       </c>
@@ -12730,7 +12732,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>542</v>
       </c>
@@ -12768,7 +12770,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>544</v>
       </c>
@@ -12809,7 +12811,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>546</v>
       </c>
@@ -12853,7 +12855,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>548</v>
       </c>
@@ -12897,7 +12899,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>550</v>
       </c>
@@ -12938,7 +12940,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>552</v>
       </c>
@@ -12982,7 +12984,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>554</v>
       </c>
@@ -13029,7 +13031,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>556</v>
       </c>
@@ -13076,7 +13078,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>558</v>
       </c>
@@ -13120,7 +13122,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>560</v>
       </c>
@@ -13158,7 +13160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>562</v>
       </c>
@@ -13199,7 +13201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>564</v>
       </c>
@@ -13243,7 +13245,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>566</v>
       </c>
@@ -13287,7 +13289,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>568</v>
       </c>
@@ -13328,7 +13330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>570</v>
       </c>
@@ -13369,7 +13371,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>572</v>
       </c>
@@ -13410,7 +13412,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>574</v>
       </c>
@@ -13445,7 +13447,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>576</v>
       </c>
@@ -13480,7 +13482,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>578</v>
       </c>
@@ -13515,7 +13517,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>580</v>
       </c>
@@ -13553,7 +13555,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>582</v>
       </c>
@@ -13591,7 +13593,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>584</v>
       </c>
@@ -13629,7 +13631,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>586</v>
       </c>
@@ -13664,7 +13666,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>588</v>
       </c>
@@ -13699,7 +13701,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>590</v>
       </c>
@@ -13734,7 +13736,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>592</v>
       </c>
@@ -13769,7 +13771,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>594</v>
       </c>
@@ -13807,7 +13809,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>596</v>
       </c>
@@ -13842,7 +13844,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>598</v>
       </c>
@@ -13880,7 +13882,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>600</v>
       </c>
@@ -13921,7 +13923,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>602</v>
       </c>
@@ -13965,7 +13967,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>604</v>
       </c>
@@ -14012,7 +14014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>606</v>
       </c>
@@ -14059,7 +14061,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>608</v>
       </c>
@@ -14103,7 +14105,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>610</v>
       </c>
@@ -14150,7 +14152,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>612</v>
       </c>
@@ -14200,7 +14202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>614</v>
       </c>
@@ -14250,7 +14252,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>616</v>
       </c>
@@ -14297,7 +14299,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>618</v>
       </c>
@@ -14338,7 +14340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>620</v>
       </c>
@@ -14382,7 +14384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>622</v>
       </c>
@@ -14429,7 +14431,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>624</v>
       </c>
@@ -14476,7 +14478,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>626</v>
       </c>
@@ -14520,7 +14522,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>628</v>
       </c>
@@ -14564,7 +14566,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>630</v>
       </c>
@@ -14608,7 +14610,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>632</v>
       </c>
@@ -14646,7 +14648,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>634</v>
       </c>
@@ -14684,7 +14686,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>636</v>
       </c>
@@ -14722,7 +14724,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>638</v>
       </c>
@@ -14763,7 +14765,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>640</v>
       </c>
@@ -14804,7 +14806,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>642</v>
       </c>
@@ -14845,7 +14847,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>644</v>
       </c>
@@ -14886,7 +14888,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>646</v>
       </c>
@@ -14924,7 +14926,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>648</v>
       </c>
@@ -14962,7 +14964,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>650</v>
       </c>
@@ -15000,7 +15002,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>652</v>
       </c>
@@ -15035,7 +15037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>654</v>
       </c>
@@ -15070,7 +15072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>656</v>
       </c>
@@ -15105,7 +15107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>659</v>
       </c>
@@ -15140,7 +15142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>661</v>
       </c>
@@ -15175,7 +15177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>663</v>
       </c>
@@ -15213,7 +15215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>665</v>
       </c>
@@ -15251,7 +15253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>667</v>
       </c>
@@ -15289,7 +15291,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>669</v>
       </c>
@@ -15327,7 +15329,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>671</v>
       </c>
@@ -15362,7 +15364,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>673</v>
       </c>
@@ -15400,7 +15402,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>675</v>
       </c>
@@ -15441,7 +15443,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>677</v>
       </c>
@@ -15485,7 +15487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>679</v>
       </c>
@@ -15529,7 +15531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>681</v>
       </c>
@@ -15570,7 +15572,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>683</v>
       </c>
@@ -15614,7 +15616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>685</v>
       </c>
@@ -15661,7 +15663,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>687</v>
       </c>
@@ -15708,7 +15710,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>689</v>
       </c>
@@ -15752,7 +15754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>691</v>
       </c>
@@ -15787,7 +15789,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>693</v>
       </c>
@@ -15825,7 +15827,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>695</v>
       </c>
@@ -15863,7 +15865,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>697</v>
       </c>
@@ -15898,7 +15900,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>699</v>
       </c>
@@ -15936,7 +15938,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>701</v>
       </c>
@@ -15974,7 +15976,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>703</v>
       </c>
@@ -16012,7 +16014,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>705</v>
       </c>
@@ -16047,7 +16049,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>707</v>
       </c>
@@ -16082,7 +16084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>709</v>
       </c>
@@ -16120,7 +16122,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>711</v>
       </c>
@@ -16158,7 +16160,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>713</v>
       </c>
@@ -16193,7 +16195,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>715</v>
       </c>
@@ -16231,7 +16233,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>717</v>
       </c>
@@ -16272,7 +16274,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>719</v>
       </c>
@@ -16316,7 +16318,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>721</v>
       </c>
@@ -16360,7 +16362,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>723</v>
       </c>
@@ -16401,7 +16403,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>725</v>
       </c>
@@ -16445,7 +16447,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>727</v>
       </c>
@@ -16492,7 +16494,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>729</v>
       </c>
@@ -16539,7 +16541,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>731</v>
       </c>
@@ -16583,7 +16585,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>733</v>
       </c>
@@ -16621,7 +16623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>735</v>
       </c>
@@ -16662,7 +16664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>737</v>
       </c>
@@ -16706,7 +16708,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>739</v>
       </c>
@@ -16750,7 +16752,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>741</v>
       </c>
@@ -16791,7 +16793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>743</v>
       </c>
@@ -16832,7 +16834,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>745</v>
       </c>
@@ -16873,7 +16875,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>747</v>
       </c>
@@ -16908,7 +16910,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>749</v>
       </c>
@@ -16943,7 +16945,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>751</v>
       </c>
@@ -16978,7 +16980,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>753</v>
       </c>
@@ -17016,7 +17018,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>755</v>
       </c>
@@ -17054,7 +17056,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>757</v>
       </c>
@@ -17092,7 +17094,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>759</v>
       </c>
@@ -17127,7 +17129,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>761</v>
       </c>
@@ -17162,7 +17164,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>763</v>
       </c>
@@ -17200,7 +17202,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>765</v>
       </c>
@@ -17235,7 +17237,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>767</v>
       </c>
@@ -17273,7 +17275,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>769</v>
       </c>
@@ -17314,7 +17316,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>771</v>
       </c>
@@ -17358,7 +17360,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>773</v>
       </c>
@@ -17405,7 +17407,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>775</v>
       </c>
@@ -17452,7 +17454,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>777</v>
       </c>
@@ -17496,7 +17498,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>779</v>
       </c>
@@ -17543,7 +17545,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>781</v>
       </c>
@@ -17593,7 +17595,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>783</v>
       </c>
@@ -17643,7 +17645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>785</v>
       </c>
@@ -17690,7 +17692,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>787</v>
       </c>
@@ -17731,7 +17733,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>789</v>
       </c>
@@ -17775,7 +17777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>791</v>
       </c>
@@ -17822,7 +17824,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>793</v>
       </c>
@@ -17869,7 +17871,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>795</v>
       </c>
@@ -17913,7 +17915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>797</v>
       </c>
@@ -17957,7 +17959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>799</v>
       </c>
@@ -18001,7 +18003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>801</v>
       </c>
@@ -18039,7 +18041,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>803</v>
       </c>
@@ -18077,7 +18079,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>805</v>
       </c>
@@ -18115,7 +18117,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>807</v>
       </c>
@@ -18156,7 +18158,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>809</v>
       </c>
@@ -18197,7 +18199,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>811</v>
       </c>
@@ -18238,7 +18240,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>813</v>
       </c>
@@ -18279,7 +18281,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>815</v>
       </c>
@@ -18317,7 +18319,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>817</v>
       </c>
@@ -18355,7 +18357,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>819</v>
       </c>
@@ -18390,7 +18392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>822</v>
       </c>
@@ -18425,7 +18427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>824</v>
       </c>
@@ -18460,7 +18462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>826</v>
       </c>
@@ -18495,7 +18497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>828</v>
       </c>
@@ -18530,7 +18532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>830</v>
       </c>
@@ -18568,7 +18570,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>832</v>
       </c>
@@ -18606,7 +18608,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>834</v>
       </c>
@@ -18644,7 +18646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>836</v>
       </c>
@@ -18682,7 +18684,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>838</v>
       </c>
@@ -18717,7 +18719,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>840</v>
       </c>
@@ -18755,7 +18757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>842</v>
       </c>
@@ -18796,7 +18798,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>844</v>
       </c>
@@ -18840,7 +18842,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>846</v>
       </c>
@@ -18884,7 +18886,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>848</v>
       </c>
@@ -18925,7 +18927,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>850</v>
       </c>
@@ -18969,7 +18971,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>852</v>
       </c>
@@ -19016,7 +19018,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>854</v>
       </c>
@@ -19063,7 +19065,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>856</v>
       </c>
@@ -19107,7 +19109,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>858</v>
       </c>
@@ -19142,7 +19144,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>860</v>
       </c>
@@ -19180,7 +19182,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>862</v>
       </c>
@@ -19218,7 +19220,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>864</v>
       </c>
@@ -19253,7 +19255,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>866</v>
       </c>
@@ -19291,7 +19293,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>868</v>
       </c>
@@ -19329,7 +19331,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>870</v>
       </c>
@@ -19367,7 +19369,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>872</v>
       </c>
@@ -19402,7 +19404,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>874</v>
       </c>
@@ -19437,7 +19439,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>876</v>
       </c>
@@ -19475,7 +19477,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>878</v>
       </c>
@@ -19513,7 +19515,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>880</v>
       </c>
@@ -19548,7 +19550,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>882</v>
       </c>
@@ -19586,7 +19588,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>884</v>
       </c>
@@ -19627,7 +19629,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>886</v>
       </c>
@@ -19671,7 +19673,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>888</v>
       </c>
@@ -19715,7 +19717,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>890</v>
       </c>
@@ -19756,7 +19758,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>892</v>
       </c>
@@ -19800,7 +19802,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>894</v>
       </c>
@@ -19847,7 +19849,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>896</v>
       </c>
@@ -19894,7 +19896,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="385" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>898</v>
       </c>
@@ -19938,7 +19940,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>900</v>
       </c>
@@ -19976,7 +19978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="387" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>902</v>
       </c>
@@ -20017,7 +20019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>904</v>
       </c>
@@ -20061,7 +20063,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="389" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>906</v>
       </c>
@@ -20105,7 +20107,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>908</v>
       </c>
@@ -20146,7 +20148,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="391" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>910</v>
       </c>
@@ -20187,7 +20189,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>912</v>
       </c>
@@ -20228,7 +20230,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>914</v>
       </c>
@@ -20263,7 +20265,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>916</v>
       </c>
@@ -20298,7 +20300,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="395" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>918</v>
       </c>
@@ -20333,7 +20335,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>920</v>
       </c>
@@ -20371,7 +20373,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="397" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>922</v>
       </c>
@@ -20409,7 +20411,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="398" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>924</v>
       </c>
@@ -20447,7 +20449,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="399" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>926</v>
       </c>
@@ -20482,7 +20484,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="400" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>928</v>
       </c>
@@ -20517,7 +20519,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>930</v>
       </c>
@@ -20555,7 +20557,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>932</v>
       </c>
@@ -20590,7 +20592,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>934</v>
       </c>
@@ -20628,7 +20630,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>936</v>
       </c>
@@ -20669,7 +20671,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>938</v>
       </c>
@@ -20713,7 +20715,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>940</v>
       </c>
@@ -20760,7 +20762,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>942</v>
       </c>
@@ -20807,7 +20809,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>944</v>
       </c>
@@ -20851,7 +20853,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>946</v>
       </c>
@@ -20898,7 +20900,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>948</v>
       </c>
@@ -20948,7 +20950,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>950</v>
       </c>
@@ -20998,7 +21000,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>952</v>
       </c>
@@ -21045,7 +21047,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>954</v>
       </c>
@@ -21086,7 +21088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>956</v>
       </c>
@@ -21130,7 +21132,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>958</v>
       </c>
@@ -21177,7 +21179,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>960</v>
       </c>
@@ -21224,7 +21226,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>962</v>
       </c>
@@ -21268,7 +21270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>964</v>
       </c>
@@ -21312,7 +21314,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>966</v>
       </c>
@@ -21356,7 +21358,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>968</v>
       </c>
@@ -21394,7 +21396,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>970</v>
       </c>
@@ -21432,7 +21434,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>972</v>
       </c>
@@ -21470,7 +21472,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>974</v>
       </c>
@@ -21511,7 +21513,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>976</v>
       </c>
@@ -21552,7 +21554,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>978</v>
       </c>
@@ -21593,7 +21595,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>980</v>
       </c>
@@ -21634,7 +21636,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>982</v>
       </c>
@@ -21672,7 +21674,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>984</v>
       </c>
@@ -21710,7 +21712,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>986</v>
       </c>
@@ -21745,7 +21747,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>990</v>
       </c>
@@ -21780,7 +21782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>992</v>
       </c>
@@ -21815,7 +21817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>994</v>
       </c>
@@ -21850,7 +21852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>996</v>
       </c>
@@ -21885,7 +21887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>998</v>
       </c>
@@ -21920,7 +21922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>1000</v>
       </c>
@@ -21958,7 +21960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>1002</v>
       </c>
@@ -21996,7 +21998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>1004</v>
       </c>
@@ -22034,7 +22036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>1006</v>
       </c>
@@ -22072,7 +22074,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>1008</v>
       </c>
@@ -22107,7 +22109,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>1010</v>
       </c>
@@ -22142,7 +22144,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>1012</v>
       </c>
@@ -22180,7 +22182,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>1015</v>
       </c>
@@ -22221,7 +22223,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>1018</v>
       </c>
@@ -22265,7 +22267,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>1021</v>
       </c>
@@ -22309,7 +22311,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>1024</v>
       </c>
@@ -22350,7 +22352,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>1027</v>
       </c>
@@ -22394,7 +22396,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>1030</v>
       </c>
@@ -22441,7 +22443,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>1033</v>
       </c>
@@ -22488,7 +22490,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>1036</v>
       </c>
@@ -22532,7 +22534,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>1039</v>
       </c>
@@ -22570,7 +22572,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>1043</v>
       </c>
@@ -22605,7 +22607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>1045</v>
       </c>
@@ -22643,7 +22645,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>1047</v>
       </c>
@@ -22681,7 +22683,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>1049</v>
       </c>
@@ -22716,7 +22718,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>1051</v>
       </c>
@@ -22754,7 +22756,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>1053</v>
       </c>
@@ -22792,7 +22794,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>1055</v>
       </c>
@@ -22830,7 +22832,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>1057</v>
       </c>
@@ -22865,7 +22867,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>1059</v>
       </c>
@@ -22900,7 +22902,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>1061</v>
       </c>
@@ -22935,7 +22937,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>1063</v>
       </c>
@@ -22970,7 +22972,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>1066</v>
       </c>
@@ -23005,7 +23007,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>1069</v>
       </c>
@@ -23040,7 +23042,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>1072</v>
       </c>
@@ -23078,7 +23080,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>1075</v>
       </c>
@@ -23116,7 +23118,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>1078</v>
       </c>
@@ -23157,7 +23159,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>1082</v>
       </c>
@@ -23195,7 +23197,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>1086</v>
       </c>
@@ -23230,7 +23232,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>1088</v>
       </c>
@@ -23268,7 +23270,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>1090</v>
       </c>
@@ -23309,7 +23311,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>1092</v>
       </c>
@@ -23353,7 +23355,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>1094</v>
       </c>
@@ -23397,7 +23399,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>1096</v>
       </c>
@@ -23438,7 +23440,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>1098</v>
       </c>
@@ -23482,7 +23484,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>1100</v>
       </c>
@@ -23529,7 +23531,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>1102</v>
       </c>
@@ -23576,7 +23578,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>1104</v>
       </c>
@@ -23620,7 +23622,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>1106</v>
       </c>
@@ -23658,7 +23660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>1108</v>
       </c>
@@ -23699,7 +23701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>1110</v>
       </c>
@@ -23743,7 +23745,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>1112</v>
       </c>
@@ -23787,7 +23789,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="482" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>1114</v>
       </c>
@@ -23828,7 +23830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="483" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>1116</v>
       </c>
@@ -23869,7 +23871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="484" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>1118</v>
       </c>
@@ -23910,7 +23912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="485" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>1120</v>
       </c>
@@ -23945,7 +23947,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="486" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>1122</v>
       </c>
@@ -23980,7 +23982,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="487" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>1124</v>
       </c>
@@ -24015,7 +24017,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="488" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>1126</v>
       </c>
@@ -24053,7 +24055,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="489" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>1128</v>
       </c>
@@ -24091,7 +24093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="490" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>1130</v>
       </c>
@@ -24129,7 +24131,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="491" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>1132</v>
       </c>
@@ -24164,7 +24166,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="492" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>1134</v>
       </c>
@@ -24199,7 +24201,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="493" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>1136</v>
       </c>
@@ -24237,7 +24239,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>1140</v>
       </c>
@@ -24272,7 +24274,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="495" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>1142</v>
       </c>
@@ -24307,7 +24309,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>1145</v>
       </c>
@@ -24345,7 +24347,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="497" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>1149</v>
       </c>
@@ -24383,7 +24385,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>1153</v>
       </c>
@@ -24421,7 +24423,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>1157</v>
       </c>
@@ -24459,7 +24461,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>1161</v>
       </c>
@@ -24494,7 +24496,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>1165</v>
       </c>
@@ -24529,7 +24531,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>1168</v>
       </c>
@@ -24564,7 +24566,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>1170</v>
       </c>
@@ -24599,7 +24601,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>1172</v>
       </c>
@@ -24634,7 +24636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="505" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>1174</v>
       </c>
@@ -24669,7 +24671,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>1176</v>
       </c>
@@ -24704,7 +24706,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="507" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>1178</v>
       </c>
@@ -24742,7 +24744,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>1181</v>
       </c>
@@ -24780,7 +24782,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="509" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>1185</v>
       </c>
@@ -24818,7 +24820,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>1189</v>
       </c>
@@ -24853,7 +24855,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="511" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>1191</v>
       </c>
@@ -24891,7 +24893,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="512" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>1193</v>
       </c>
@@ -24932,7 +24934,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="513" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>1195</v>
       </c>
@@ -24976,7 +24978,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="514" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>1197</v>
       </c>
@@ -25023,7 +25025,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="515" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>1199</v>
       </c>
@@ -25070,7 +25072,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="516" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>1201</v>
       </c>
@@ -25114,7 +25116,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="517" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>1203</v>
       </c>
@@ -25161,7 +25163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="518" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>1205</v>
       </c>
@@ -25211,7 +25213,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="519" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>1207</v>
       </c>
@@ -25261,7 +25263,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="520" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>1209</v>
       </c>
@@ -25308,7 +25310,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="521" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>1211</v>
       </c>
@@ -25349,7 +25351,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="522" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>1213</v>
       </c>
@@ -25393,7 +25395,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="523" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>1215</v>
       </c>
@@ -25440,7 +25442,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="524" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>1217</v>
       </c>
@@ -25487,7 +25489,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="525" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>1219</v>
       </c>
@@ -25531,7 +25533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="526" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>1221</v>
       </c>
@@ -25575,7 +25577,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="527" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>1223</v>
       </c>
@@ -25619,7 +25621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="528" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>1225</v>
       </c>
@@ -25657,7 +25659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="529" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>1227</v>
       </c>
@@ -25695,7 +25697,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="530" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>1229</v>
       </c>
@@ -25733,7 +25735,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="531" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>1231</v>
       </c>
@@ -25774,7 +25776,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="532" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>1233</v>
       </c>
@@ -25815,7 +25817,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="533" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>1235</v>
       </c>
@@ -25856,7 +25858,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="534" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>1237</v>
       </c>
@@ -25897,7 +25899,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="535" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>1239</v>
       </c>
@@ -25935,7 +25937,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="536" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>1241</v>
       </c>
@@ -25973,7 +25975,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="537" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>1243</v>
       </c>
@@ -26011,7 +26013,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="538" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>1245</v>
       </c>
@@ -26052,7 +26054,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="539" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>1248</v>
       </c>
@@ -26093,7 +26095,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="540" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>1251</v>
       </c>
@@ -26128,7 +26130,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="541" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>1255</v>
       </c>
@@ -26166,7 +26168,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="542" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>1258</v>
       </c>
@@ -26204,7 +26206,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="543" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>1262</v>
       </c>
@@ -26245,7 +26247,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="544" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>1265</v>
       </c>
@@ -26286,7 +26288,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="545" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>1268</v>
       </c>
@@ -26327,7 +26329,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="546" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>1271</v>
       </c>
@@ -26368,7 +26370,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="547" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>1274</v>
       </c>
@@ -26409,7 +26411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="548" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>1277</v>
       </c>
@@ -26450,7 +26452,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>1280</v>
       </c>
@@ -26485,7 +26487,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="550" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>1283</v>
       </c>
@@ -26523,7 +26525,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>1286</v>
       </c>
@@ -26561,7 +26563,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>1289</v>
       </c>
@@ -26596,7 +26598,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="553" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>1292</v>
       </c>
@@ -26634,7 +26636,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>1295</v>
       </c>
@@ -26672,7 +26674,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>1298</v>
       </c>
@@ -26710,7 +26712,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>1301</v>
       </c>
@@ -26748,7 +26750,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>1304</v>
       </c>
@@ -26786,7 +26788,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>1307</v>
       </c>
@@ -26824,7 +26826,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>1310</v>
       </c>
@@ -26863,7 +26865,7 @@
   <autoFilter ref="A1:P559">
     <filterColumn colId="8">
       <filters>
-        <filter val="Refiner and Blender Net Production"/>
+        <filter val="Imports"/>
       </filters>
     </filterColumn>
     <filterColumn colId="9">
@@ -26878,40 +26880,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U134"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="A85:XFD85"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" customWidth="1"/>
-    <col min="14" max="14" width="28.28515625" customWidth="1"/>
-    <col min="15" max="15" width="34.42578125" customWidth="1"/>
-    <col min="16" max="16" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="39.88671875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="34.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="24" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="29.88671875" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="28.33203125" customWidth="1"/>
+    <col min="15" max="15" width="34.44140625" customWidth="1"/>
+    <col min="16" max="16" width="1.6640625" customWidth="1"/>
     <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="1.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" customWidth="1"/>
+    <col min="19" max="19" width="1.6640625" customWidth="1"/>
+    <col min="20" max="20" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26943,7 +26944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>656</v>
       </c>
@@ -26960,7 +26961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>659</v>
       </c>
@@ -26977,7 +26978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>986</v>
       </c>
@@ -26994,7 +26995,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>990</v>
       </c>
@@ -27011,7 +27012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>992</v>
       </c>
@@ -27028,7 +27029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>994</v>
       </c>
@@ -27045,7 +27046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>996</v>
       </c>
@@ -27062,7 +27063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>998</v>
       </c>
@@ -27079,7 +27080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>1000</v>
       </c>
@@ -27099,7 +27100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>1002</v>
       </c>
@@ -27119,7 +27120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>1004</v>
       </c>
@@ -27139,7 +27140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>1006</v>
       </c>
@@ -27159,7 +27160,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>1008</v>
       </c>
@@ -27176,7 +27177,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1010</v>
       </c>
@@ -27193,7 +27194,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1012</v>
       </c>
@@ -27213,7 +27214,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1015</v>
       </c>
@@ -27236,7 +27237,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1018</v>
       </c>
@@ -27262,7 +27263,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1021</v>
       </c>
@@ -27288,7 +27289,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1024</v>
       </c>
@@ -27311,7 +27312,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1027</v>
       </c>
@@ -27337,7 +27338,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1030</v>
       </c>
@@ -27366,7 +27367,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>1033</v>
       </c>
@@ -27395,7 +27396,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>1036</v>
       </c>
@@ -27421,7 +27422,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>1039</v>
       </c>
@@ -27441,7 +27442,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>1043</v>
       </c>
@@ -27458,7 +27459,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>1045</v>
       </c>
@@ -27478,7 +27479,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1047</v>
       </c>
@@ -27498,7 +27499,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>1049</v>
       </c>
@@ -27515,7 +27516,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1051</v>
       </c>
@@ -27535,7 +27536,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>1053</v>
       </c>
@@ -27555,7 +27556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1055</v>
       </c>
@@ -27575,7 +27576,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>1057</v>
       </c>
@@ -27592,7 +27593,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>1059</v>
       </c>
@@ -27609,7 +27610,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>1061</v>
       </c>
@@ -27626,7 +27627,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1063</v>
       </c>
@@ -27643,7 +27644,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>1066</v>
       </c>
@@ -27660,7 +27661,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>1069</v>
       </c>
@@ -27677,7 +27678,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1072</v>
       </c>
@@ -27697,7 +27698,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>1075</v>
       </c>
@@ -27717,7 +27718,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>1078</v>
       </c>
@@ -27740,7 +27741,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>1082</v>
       </c>
@@ -27760,7 +27761,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>1086</v>
       </c>
@@ -27777,7 +27778,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>1088</v>
       </c>
@@ -27797,7 +27798,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>1090</v>
       </c>
@@ -27820,7 +27821,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>1092</v>
       </c>
@@ -27846,7 +27847,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>1094</v>
       </c>
@@ -27872,7 +27873,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>1096</v>
       </c>
@@ -27895,7 +27896,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>1098</v>
       </c>
@@ -27921,7 +27922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>1100</v>
       </c>
@@ -27950,7 +27951,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>1102</v>
       </c>
@@ -27979,7 +27980,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>1104</v>
       </c>
@@ -28005,7 +28006,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>1106</v>
       </c>
@@ -28025,7 +28026,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>1108</v>
       </c>
@@ -28048,7 +28049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>1110</v>
       </c>
@@ -28074,7 +28075,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>1112</v>
       </c>
@@ -28100,7 +28101,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>1114</v>
       </c>
@@ -28123,7 +28124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>1116</v>
       </c>
@@ -28146,7 +28147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>1118</v>
       </c>
@@ -28169,7 +28170,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>1120</v>
       </c>
@@ -28186,7 +28187,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>1122</v>
       </c>
@@ -28203,7 +28204,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>1124</v>
       </c>
@@ -28220,7 +28221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>1126</v>
       </c>
@@ -28240,7 +28241,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>1128</v>
       </c>
@@ -28260,7 +28261,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>1130</v>
       </c>
@@ -28280,7 +28281,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>1132</v>
       </c>
@@ -28297,7 +28298,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>1134</v>
       </c>
@@ -28314,7 +28315,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>1136</v>
       </c>
@@ -28334,7 +28335,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>1140</v>
       </c>
@@ -28351,7 +28352,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>1142</v>
       </c>
@@ -28368,7 +28369,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>1145</v>
       </c>
@@ -28388,7 +28389,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>1149</v>
       </c>
@@ -28408,7 +28409,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>1153</v>
       </c>
@@ -28428,7 +28429,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>1157</v>
       </c>
@@ -28448,7 +28449,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>1161</v>
       </c>
@@ -28465,7 +28466,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>1165</v>
       </c>
@@ -28482,7 +28483,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>1168</v>
       </c>
@@ -28499,7 +28500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>1170</v>
       </c>
@@ -28516,7 +28517,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>1172</v>
       </c>
@@ -28549,7 +28550,7 @@
       </c>
       <c r="U79" s="14"/>
     </row>
-    <row r="80" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>1174</v>
       </c>
@@ -28573,7 +28574,7 @@
         <v>Total Crude Oil and Products</v>
       </c>
       <c r="N80" s="4" t="str">
-        <f ca="1">_xlfn.IFNA(OFFSET($A$10,MATCH($B80,$B$10:$B$14,0)-1,0),"")</f>
+        <f ca="1">_xlfn.IFNA(OFFSET($A$9,MATCH($B80,$B$9:$B$14,0)-1,0),"")</f>
         <v/>
       </c>
       <c r="O80" s="3" t="e">
@@ -28597,7 +28598,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>1176</v>
       </c>
@@ -28622,7 +28623,7 @@
         <v>Crude Oil</v>
       </c>
       <c r="N81" s="4" t="str">
-        <f t="shared" ref="N81:N114" ca="1" si="2">_xlfn.IFNA(OFFSET($A$10,MATCH($B81,$B$10:$B$14,0)-1,0),"")</f>
+        <f t="shared" ref="N81:N114" ca="1" si="2">_xlfn.IFNA(OFFSET($A$9,MATCH($B81,$B$9:$B$14,0)-1,0),"")</f>
         <v/>
       </c>
       <c r="O81" s="3" t="e">
@@ -28646,7 +28647,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>1178</v>
       </c>
@@ -28698,7 +28699,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>1181</v>
       </c>
@@ -28750,7 +28751,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>1185</v>
       </c>
@@ -28802,7 +28803,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>1189</v>
       </c>
@@ -28850,7 +28851,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>1191</v>
       </c>
@@ -28901,7 +28902,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>1193</v>
       </c>
@@ -28956,7 +28957,7 @@
         <v>Finished Motor Gasoline</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>1195</v>
       </c>
@@ -29014,7 +29015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>1197</v>
       </c>
@@ -29075,7 +29076,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>1199</v>
       </c>
@@ -29136,7 +29137,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>1201</v>
       </c>
@@ -29194,7 +29195,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>1203</v>
       </c>
@@ -29255,7 +29256,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>1205</v>
       </c>
@@ -29319,7 +29320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>1207</v>
       </c>
@@ -29383,7 +29384,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>1209</v>
       </c>
@@ -29444,7 +29445,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>1211</v>
       </c>
@@ -29476,11 +29477,11 @@
       </c>
       <c r="N96" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="O96" s="3" t="e">
+        <v>WBCRI_NUS_2</v>
+      </c>
+      <c r="O96" s="3" t="str">
         <f ca="1">VLOOKUP(N96,$A$9:$C$14,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Motor Gasoline Blending Components</v>
       </c>
       <c r="Q96" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29499,7 +29500,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>1213</v>
       </c>
@@ -29557,7 +29558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>1215</v>
       </c>
@@ -29618,7 +29619,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>1217</v>
       </c>
@@ -29679,7 +29680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>1219</v>
       </c>
@@ -29737,7 +29738,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>1221</v>
       </c>
@@ -29795,7 +29796,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>1223</v>
       </c>
@@ -29853,7 +29854,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>1225</v>
       </c>
@@ -29905,7 +29906,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>1227</v>
       </c>
@@ -29957,7 +29958,7 @@
         <v>Kerosene-Type Jet Fuel</v>
       </c>
     </row>
-    <row r="105" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>1229</v>
       </c>
@@ -30009,7 +30010,7 @@
         <v>Distillate Fuel Oil</v>
       </c>
     </row>
-    <row r="106" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>1231</v>
       </c>
@@ -30064,7 +30065,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>1233</v>
       </c>
@@ -30119,7 +30120,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>1235</v>
       </c>
@@ -30174,7 +30175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>1237</v>
       </c>
@@ -30229,7 +30230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>1239</v>
       </c>
@@ -30281,7 +30282,7 @@
         <v>Residual Fuel Oil</v>
       </c>
     </row>
-    <row r="111" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>1241</v>
       </c>
@@ -30333,7 +30334,7 @@
         <v>Propane/Propylene</v>
       </c>
     </row>
-    <row r="112" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>1243</v>
       </c>
@@ -30385,7 +30386,7 @@
         <v>Other Oils</v>
       </c>
     </row>
-    <row r="113" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>1245</v>
       </c>
@@ -30440,7 +30441,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>1248</v>
       </c>
@@ -30495,7 +30496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>1251</v>
       </c>
@@ -30512,7 +30513,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="116" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>1255</v>
       </c>
@@ -30532,7 +30533,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>1258</v>
       </c>
@@ -30552,7 +30553,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="118" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>1262</v>
       </c>
@@ -30575,7 +30576,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>1265</v>
       </c>
@@ -30598,7 +30599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="120" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>1268</v>
       </c>
@@ -30621,7 +30622,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>1271</v>
       </c>
@@ -30644,7 +30645,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>1274</v>
       </c>
@@ -30667,7 +30668,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>1277</v>
       </c>
@@ -30690,7 +30691,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="124" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>1280</v>
       </c>
@@ -30707,7 +30708,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>1283</v>
       </c>
@@ -30727,7 +30728,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="126" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>1286</v>
       </c>
@@ -30747,7 +30748,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="127" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>1289</v>
       </c>
@@ -30764,7 +30765,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="128" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>1292</v>
       </c>
@@ -30784,7 +30785,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>1295</v>
       </c>
@@ -30804,7 +30805,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>1298</v>
       </c>
@@ -30824,7 +30825,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>1301</v>
       </c>
@@ -30844,7 +30845,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>1304</v>
       </c>
@@ -30864,7 +30865,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>1307</v>
       </c>
@@ -30884,7 +30885,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>1310</v>
       </c>
@@ -30902,22 +30903,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J134">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Crude Oil Production"/>
-        <filter val="Days of Supply (Number of Days)"/>
-        <filter val="Ethanol Plant Production"/>
-        <filter val="Exports"/>
-        <filter val="Imports"/>
-        <filter val="Net Imports (Including SPR)"/>
-        <filter val="Product Supplied"/>
-        <filter val="Refiner and Blender Net Inputs"/>
-        <filter val="Refiner Inputs and Utilization"/>
-        <filter val="Ultra Low Sulfur Distillate"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J134"/>
   <mergeCells count="4">
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="N79:O79"/>
@@ -30933,28 +30919,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="99.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="114.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="114.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30988,7 +30974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1063</v>
       </c>
@@ -31024,7 +31010,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1066</v>
       </c>
@@ -31060,7 +31046,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1069</v>
       </c>
@@ -31096,7 +31082,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1072</v>
       </c>
@@ -31132,7 +31118,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1075</v>
       </c>
@@ -31168,7 +31154,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1078</v>
       </c>
@@ -31189,7 +31175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1082</v>
       </c>
@@ -31210,7 +31196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G9" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -31231,7 +31217,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1086</v>
       </c>
@@ -31267,7 +31253,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1088</v>
       </c>
@@ -31303,7 +31289,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1090</v>
       </c>
@@ -31339,7 +31325,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1092</v>
       </c>
@@ -31375,7 +31361,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1094</v>
       </c>
@@ -31411,7 +31397,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1096</v>
       </c>
@@ -31447,7 +31433,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1098</v>
       </c>
@@ -31483,7 +31469,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1100</v>
       </c>
@@ -31519,7 +31505,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1102</v>
       </c>
@@ -31555,7 +31541,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1104</v>
       </c>
@@ -31591,7 +31577,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1106</v>
       </c>
@@ -31627,7 +31613,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1108</v>
       </c>
@@ -31663,7 +31649,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1110</v>
       </c>
@@ -31699,7 +31685,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>1112</v>
       </c>
@@ -31735,7 +31721,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>1114</v>
       </c>
@@ -31771,7 +31757,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>1116</v>
       </c>
@@ -31807,7 +31793,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>1118</v>
       </c>
@@ -31843,7 +31829,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>1120</v>
       </c>
@@ -31879,7 +31865,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1122</v>
       </c>
@@ -31915,7 +31901,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>1124</v>
       </c>
@@ -31951,7 +31937,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1126</v>
       </c>
@@ -31987,7 +31973,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>1128</v>
       </c>
@@ -32008,7 +31994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1130</v>
       </c>
@@ -32030,7 +32016,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
       <c r="G33" t="b">
         <f t="shared" si="0"/>
@@ -32052,7 +32038,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G34" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -32073,7 +32059,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>1132</v>
       </c>
@@ -32109,7 +32095,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1134</v>
       </c>
@@ -32145,7 +32131,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>1136</v>
       </c>
@@ -32166,7 +32152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>1140</v>
       </c>
@@ -32187,7 +32173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1142</v>
       </c>
@@ -32223,7 +32209,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>1145</v>
       </c>
@@ -32244,7 +32230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>1149</v>
       </c>
@@ -32280,7 +32266,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>1153</v>
       </c>
@@ -32301,7 +32287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>1157</v>
       </c>
@@ -32351,27 +32337,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:C33"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" customWidth="1"/>
     <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="114.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="114.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32403,7 +32389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I2" s="1" t="s">
         <v>1174</v>
       </c>
@@ -32420,7 +32406,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>1176</v>
       </c>
@@ -32437,7 +32423,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I4" s="1" t="s">
         <v>1178</v>
       </c>
@@ -32454,7 +32440,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I5" s="1" t="s">
         <v>1181</v>
       </c>
@@ -32471,7 +32457,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I6" s="1" t="s">
         <v>1185</v>
       </c>
@@ -32488,7 +32474,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I7" s="1" t="s">
         <v>1189</v>
       </c>
@@ -32505,7 +32491,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I8" s="1" t="s">
         <v>1191</v>
       </c>
@@ -32522,7 +32508,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1010</v>
       </c>
@@ -32558,7 +32544,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1012</v>
       </c>
@@ -32580,7 +32566,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1015</v>
       </c>
@@ -32616,7 +32602,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1018</v>
       </c>
@@ -32652,7 +32638,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1021</v>
       </c>
@@ -32688,7 +32674,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1024</v>
       </c>
@@ -32724,7 +32710,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1027</v>
       </c>
@@ -32760,7 +32746,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1030</v>
       </c>
@@ -32796,7 +32782,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1033</v>
       </c>
@@ -32832,7 +32818,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1036</v>
       </c>
@@ -32868,7 +32854,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1039</v>
       </c>
@@ -32904,7 +32890,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G20" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -32925,7 +32911,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G21" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -32946,7 +32932,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G22" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -32967,7 +32953,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G23" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -32988,7 +32974,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G24" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -33009,7 +32995,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G25" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -33030,7 +33016,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G26" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -33051,7 +33037,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>1043</v>
       </c>
@@ -33087,7 +33073,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1045</v>
       </c>
@@ -33109,7 +33095,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>1047</v>
       </c>
@@ -33131,7 +33117,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1049</v>
       </c>
@@ -33167,7 +33153,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>1051</v>
       </c>
@@ -33203,7 +33189,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1053</v>
       </c>
@@ -33239,7 +33225,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>1055</v>
       </c>
@@ -33275,7 +33261,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G34" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -33296,7 +33282,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>1057</v>
       </c>
@@ -33332,7 +33318,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1059</v>
       </c>
@@ -33368,7 +33354,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I37" s="1" t="s">
         <v>1243</v>
       </c>
@@ -33385,7 +33371,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I38" s="1" t="s">
         <v>1245</v>
       </c>
@@ -33402,7 +33388,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I39" s="1" t="s">
         <v>1248</v>
       </c>
@@ -33431,22 +33417,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>210</v>
       </c>
@@ -33457,7 +33442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1174</v>
       </c>
@@ -33468,7 +33453,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>128</v>
@@ -33477,7 +33462,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>128</v>
@@ -33486,7 +33471,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>128</v>
@@ -33495,7 +33480,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>128</v>
@@ -33504,7 +33489,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>128</v>
       </c>
@@ -33512,7 +33497,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>128</v>
       </c>
@@ -33520,7 +33505,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1189</v>
       </c>
@@ -33528,7 +33513,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1191</v>
       </c>
@@ -33539,7 +33524,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1193</v>
       </c>
@@ -33550,7 +33535,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1195</v>
       </c>
@@ -33561,7 +33546,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1197</v>
       </c>
@@ -33572,7 +33557,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1199</v>
       </c>
@@ -33583,7 +33568,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1201</v>
       </c>
@@ -33594,7 +33579,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1203</v>
       </c>
@@ -33605,7 +33590,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1205</v>
       </c>
@@ -33616,7 +33601,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1207</v>
       </c>
@@ -33627,7 +33612,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1209</v>
       </c>
@@ -33638,7 +33623,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1211</v>
       </c>
@@ -33649,7 +33634,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1213</v>
       </c>
@@ -33660,7 +33645,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1215</v>
       </c>
@@ -33671,7 +33656,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>1217</v>
       </c>
@@ -33682,7 +33667,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>1219</v>
       </c>
@@ -33693,7 +33678,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>1221</v>
       </c>
@@ -33704,7 +33689,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>1223</v>
       </c>
@@ -33715,7 +33700,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>1225</v>
       </c>
@@ -33726,7 +33711,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>1227</v>
       </c>
@@ -33737,7 +33722,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>1229</v>
       </c>
@@ -33748,7 +33733,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1231</v>
       </c>
@@ -33759,7 +33744,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>128</v>
       </c>
@@ -33767,7 +33752,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>128</v>
@@ -33776,7 +33761,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>1235</v>
       </c>
@@ -33785,7 +33770,7 @@
       </c>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>1237</v>
       </c>
@@ -33793,7 +33778,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>1239</v>
       </c>
@@ -33804,7 +33789,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>1241</v>
       </c>
@@ -33815,7 +33800,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>128</v>
       </c>
@@ -33823,7 +33808,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>128</v>
       </c>
@@ -33831,7 +33816,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1243</v>
       </c>
@@ -33842,7 +33827,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>128</v>
       </c>
@@ -33850,7 +33835,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>1245</v>
       </c>
@@ -33861,7 +33846,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>128</v>
       </c>
@@ -33869,7 +33854,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>1248</v>
       </c>
@@ -33880,42 +33865,42 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>1193</v>
       </c>
@@ -33926,7 +33911,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>57</v>
@@ -33935,7 +33920,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>1195</v>
       </c>
@@ -33946,7 +33931,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>1197</v>
       </c>
@@ -33957,7 +33942,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>1199</v>
       </c>
@@ -33968,7 +33953,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>1201</v>
       </c>
@@ -33979,7 +33964,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>1203</v>
       </c>
@@ -33990,7 +33975,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>1205</v>
       </c>
@@ -34001,7 +33986,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>1207</v>
       </c>
@@ -34012,7 +33997,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>1209</v>
       </c>
@@ -34023,7 +34008,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>1211</v>
       </c>
@@ -34034,42 +34019,42 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>1227</v>
       </c>
@@ -34080,7 +34065,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" t="s">
         <v>57</v>
@@ -34089,7 +34074,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" t="s">
         <v>57</v>
@@ -34098,7 +34083,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>1229</v>
       </c>
@@ -34109,7 +34094,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>1231</v>
       </c>
@@ -34120,7 +34105,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>1233</v>
       </c>
@@ -34131,7 +34116,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>1235</v>
       </c>
@@ -34142,12 +34127,12 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>1239</v>
       </c>
@@ -34158,7 +34143,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>1241</v>
       </c>
@@ -34169,29 +34154,23 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>1248</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C81">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Stocks"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C81"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34200,18 +34179,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>210</v>
       </c>
@@ -34222,7 +34203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1174</v>
       </c>
@@ -34233,7 +34214,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1176</v>
       </c>
@@ -34244,7 +34225,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1178</v>
       </c>
@@ -34255,7 +34236,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1181</v>
       </c>
@@ -34266,7 +34247,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1185</v>
       </c>
@@ -34277,7 +34258,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1189</v>
       </c>
@@ -34288,7 +34269,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1191</v>
       </c>
@@ -34299,7 +34280,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1193</v>
       </c>
@@ -34310,7 +34291,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1195</v>
       </c>
@@ -34321,7 +34302,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1197</v>
       </c>
@@ -34332,7 +34313,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1199</v>
       </c>
@@ -34343,7 +34324,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1201</v>
       </c>
@@ -34354,7 +34335,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34365,7 +34346,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>1205</v>
       </c>
@@ -34376,7 +34357,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>1207</v>
       </c>
@@ -34387,7 +34368,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>1209</v>
       </c>
@@ -34398,7 +34379,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>1211</v>
       </c>
@@ -34409,7 +34390,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>1213</v>
       </c>
@@ -34420,7 +34401,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>1215</v>
       </c>
@@ -34431,7 +34412,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>1217</v>
       </c>
@@ -34442,7 +34423,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>1219</v>
       </c>
@@ -34453,7 +34434,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>1221</v>
       </c>
@@ -34464,7 +34445,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>1223</v>
       </c>
@@ -34475,7 +34456,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>1225</v>
       </c>
@@ -34486,7 +34467,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>1227</v>
       </c>
@@ -34497,7 +34478,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>1229</v>
       </c>
@@ -34508,7 +34489,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>1231</v>
       </c>
@@ -34519,7 +34500,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>1233</v>
       </c>
@@ -34530,7 +34511,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>1235</v>
       </c>
@@ -34541,7 +34522,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>1237</v>
       </c>
@@ -34552,7 +34533,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>1239</v>
       </c>
@@ -34563,7 +34544,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>1241</v>
       </c>
@@ -34574,7 +34555,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>1243</v>
       </c>
@@ -34585,7 +34566,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>1245</v>
       </c>
@@ -34596,7 +34577,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>1248</v>
       </c>
@@ -34607,7 +34588,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>1174</v>
       </c>
@@ -34618,7 +34599,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>1176</v>
       </c>
@@ -34629,7 +34610,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>1178</v>
       </c>
@@ -34640,7 +34621,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>1181</v>
       </c>
@@ -34651,7 +34632,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>1185</v>
       </c>
@@ -34662,7 +34643,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>1189</v>
       </c>
@@ -34673,7 +34654,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>1191</v>
       </c>
@@ -34684,7 +34665,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>1193</v>
       </c>
@@ -34695,7 +34676,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>1195</v>
       </c>
@@ -34706,7 +34687,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>1197</v>
       </c>
@@ -34717,7 +34698,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>1199</v>
       </c>
@@ -34728,7 +34709,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>1201</v>
       </c>
@@ -34739,7 +34720,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>1203</v>
       </c>
@@ -34750,7 +34731,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>1205</v>
       </c>
@@ -34761,7 +34742,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>1207</v>
       </c>
@@ -34772,7 +34753,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>1209</v>
       </c>
@@ -34783,7 +34764,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>1211</v>
       </c>
@@ -34791,10 +34772,10 @@
         <v>33</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>1213</v>
       </c>
@@ -34805,7 +34786,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>1215</v>
       </c>
@@ -34816,7 +34797,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>1217</v>
       </c>
@@ -34827,7 +34808,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>1219</v>
       </c>
@@ -34838,7 +34819,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>1221</v>
       </c>
@@ -34849,7 +34830,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>1223</v>
       </c>
@@ -34860,7 +34841,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>1225</v>
       </c>
@@ -34871,7 +34852,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>1227</v>
       </c>
@@ -34882,7 +34863,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>1229</v>
       </c>
@@ -34893,7 +34874,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>1231</v>
       </c>
@@ -34904,7 +34885,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>1233</v>
       </c>
@@ -34915,7 +34896,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>1235</v>
       </c>
@@ -34926,7 +34907,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>1237</v>
       </c>
@@ -34937,7 +34918,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>1239</v>
       </c>
@@ -34948,7 +34929,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>1241</v>
       </c>
@@ -34959,7 +34940,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>1243</v>
       </c>
@@ -34970,7 +34951,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>1245</v>
       </c>
@@ -34981,7 +34962,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>1248</v>
       </c>
@@ -34992,7 +34973,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>1174</v>
       </c>
@@ -35003,7 +34984,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>1176</v>
       </c>
@@ -35014,7 +34995,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>1178</v>
       </c>
@@ -35025,7 +35006,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>1181</v>
       </c>
@@ -35036,7 +35017,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>1185</v>
       </c>
@@ -35047,7 +35028,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>1189</v>
       </c>
@@ -35058,7 +35039,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>1191</v>
       </c>
@@ -35069,7 +35050,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>1193</v>
       </c>
@@ -35080,7 +35061,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>1195</v>
       </c>
@@ -35091,7 +35072,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>1197</v>
       </c>
@@ -35102,7 +35083,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>1199</v>
       </c>
@@ -35113,7 +35094,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>1201</v>
       </c>
@@ -35124,7 +35105,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>1203</v>
       </c>
@@ -35135,7 +35116,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>1205</v>
       </c>
@@ -35146,7 +35127,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>1207</v>
       </c>
@@ -35157,7 +35138,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>1209</v>
       </c>
@@ -35168,7 +35149,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>1211</v>
       </c>
@@ -35179,7 +35160,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>1213</v>
       </c>
@@ -35190,7 +35171,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>1215</v>
       </c>
@@ -35201,7 +35182,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>1217</v>
       </c>
@@ -35212,7 +35193,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>1219</v>
       </c>
@@ -35223,7 +35204,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>1221</v>
       </c>
@@ -35234,7 +35215,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>1223</v>
       </c>
@@ -35245,7 +35226,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>1225</v>
       </c>
@@ -35256,7 +35237,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>1227</v>
       </c>
@@ -35267,7 +35248,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>1229</v>
       </c>
@@ -35278,7 +35259,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>1231</v>
       </c>
@@ -35289,7 +35270,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>1233</v>
       </c>
@@ -35300,7 +35281,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>1235</v>
       </c>
@@ -35311,7 +35292,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>1237</v>
       </c>
@@ -35322,7 +35303,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>1239</v>
       </c>
@@ -35333,7 +35314,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>1241</v>
       </c>
@@ -35344,7 +35325,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>1243</v>
       </c>
@@ -35355,7 +35336,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>1245</v>
       </c>
@@ -35366,7 +35347,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>1248</v>
       </c>
@@ -35377,7 +35358,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>1174</v>
       </c>
@@ -35388,7 +35369,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>1176</v>
       </c>
@@ -35399,7 +35380,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>1178</v>
       </c>
@@ -35410,7 +35391,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>1181</v>
       </c>
@@ -35421,7 +35402,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>1185</v>
       </c>
@@ -35432,7 +35413,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>1189</v>
       </c>
@@ -35443,7 +35424,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>1191</v>
       </c>
@@ -35454,7 +35435,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>1193</v>
       </c>
@@ -35465,7 +35446,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>1195</v>
       </c>
@@ -35476,7 +35457,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>1197</v>
       </c>
@@ -35487,7 +35468,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>1199</v>
       </c>
@@ -35498,7 +35479,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>1201</v>
       </c>
@@ -35509,7 +35490,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>1203</v>
       </c>
@@ -35520,7 +35501,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>1205</v>
       </c>
@@ -35531,7 +35512,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>1207</v>
       </c>
@@ -35542,7 +35523,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>1209</v>
       </c>
@@ -35553,7 +35534,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>1211</v>
       </c>
@@ -35564,7 +35545,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>1213</v>
       </c>
@@ -35575,7 +35556,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>1215</v>
       </c>
@@ -35586,7 +35567,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>1217</v>
       </c>
@@ -35597,7 +35578,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>1219</v>
       </c>
@@ -35608,7 +35589,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>1221</v>
       </c>
@@ -35619,7 +35600,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>1223</v>
       </c>
@@ -35630,7 +35611,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>1225</v>
       </c>
@@ -35641,7 +35622,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>1227</v>
       </c>
@@ -35652,7 +35633,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>1229</v>
       </c>
@@ -35663,7 +35644,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>1231</v>
       </c>
@@ -35674,7 +35655,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>1233</v>
       </c>
@@ -35685,7 +35666,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>1235</v>
       </c>
@@ -35696,7 +35677,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>1237</v>
       </c>
@@ -35707,7 +35688,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>1239</v>
       </c>
@@ -35718,7 +35699,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>1241</v>
       </c>
@@ -35729,7 +35710,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>1243</v>
       </c>
@@ -35740,7 +35721,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>1245</v>
       </c>
@@ -35751,7 +35732,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>1248</v>
       </c>
@@ -35759,6 +35740,306 @@
         <v>1291</v>
       </c>
       <c r="C141" s="4" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C141"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B38"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B20" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B38" t="s">
         <v>1314</v>
       </c>
     </row>
